--- a/matlab/initial_conditions_cattai/create_initial_conditions/Defaults_2013_CC_v2.xlsx
+++ b/matlab/initial_conditions_cattai/create_initial_conditions/Defaults_2013_CC_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\Hawkesbury\matlab\initial_conditions_cattai\create_initial_conditions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\initial_conditions_cattai\create_initial_conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C16879-116B-4D8E-A0BE-2B497159B32E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8023A9E7-A9C3-41F9-A7FC-19C0C7A50FDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38600" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean_Initial_Condition" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Zone 3</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>TCHLA</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -1026,30 +1038,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="11.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" style="4" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1062,7 +1074,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1103,24 +1115,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.2</v>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.5</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1144,24 +1156,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6">
-        <v>14.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>14.5</v>
-      </c>
-      <c r="D4" s="6">
-        <v>14.5</v>
-      </c>
-      <c r="E4" s="6">
-        <v>14.5</v>
-      </c>
-      <c r="F4" s="6">
-        <v>14.5</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1185,24 +1197,24 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="C5" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="D5" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>10.4</v>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>31</v>
@@ -1223,448 +1235,514 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B9" s="6">
         <v>251</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C9" s="6">
         <v>268</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D9" s="6">
         <v>295</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E9" s="6">
         <v>251</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F9" s="6">
         <v>285</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B10" s="6">
         <v>254.80430000000001</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C10" s="6">
         <v>288</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D10" s="6">
         <v>288</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E10" s="6">
         <v>254.80430000000001</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F10" s="6">
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B11" s="6">
         <v>2.5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C11" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D11" s="6">
         <v>11</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E11" s="6">
         <v>3.5</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F11" s="6">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B12" s="6">
         <v>150</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C12" s="6">
         <v>179</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D12" s="6">
         <v>371</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E12" s="6">
         <v>105</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F12" s="6">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B13" s="6">
         <v>0.7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C13" s="6">
         <v>1.4</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D13" s="6">
         <v>0.51</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E13" s="6">
         <v>0.42299999999999999</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F13" s="6">
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
-        <f t="shared" ref="B11:C11" si="0">B10*0.1</f>
+      <c r="B14" s="6">
+        <f>B13*0.1</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="C11" s="6">
-        <f t="shared" si="0"/>
+      <c r="C14" s="6">
+        <f>C13*0.1</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" ref="D11" si="1">D10*0.1</f>
+      <c r="D14" s="6">
+        <f>D13*0.1</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="E11" s="6">
-        <f t="shared" ref="C11:F11" si="2">E10*0.1</f>
+      <c r="E14" s="6">
+        <f>E13*0.1</f>
         <v>4.2300000000000004E-2</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="2"/>
+      <c r="F14" s="6">
+        <f>F13*0.1</f>
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B15" s="6">
         <v>208.33333333333334</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C15" s="6">
         <v>208.33333333333334</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D15" s="6">
         <v>208.33333333333334</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E15" s="6">
         <v>208.33333333333334</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F15" s="6">
         <v>208.33333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B16" s="6">
         <v>208.33333333333334</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C16" s="6">
         <v>208.33333333333334</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D16" s="6">
         <v>208.33333333333334</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E16" s="6">
         <v>208.33333333333334</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F16" s="6">
         <v>208.33333333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
-        <f>(K3-B8-B9)/2</f>
+      <c r="B17" s="6">
+        <f>(K3-B11-B12)/2</f>
         <v>20.25</v>
       </c>
-      <c r="C14" s="6">
-        <f t="shared" ref="C14:F14" si="3">(L3-C8-C9)/2</f>
+      <c r="C17" s="6">
+        <f>(L3-C11-C12)/2</f>
         <v>19.900000000000006</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="3"/>
+      <c r="D17" s="6">
+        <f>(M3-D11-D12)/2</f>
         <v>16</v>
       </c>
-      <c r="E14" s="6">
-        <f t="shared" si="3"/>
+      <c r="E17" s="6">
+        <f>(N3-E11-E12)/2</f>
         <v>36.75</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="3"/>
+      <c r="F17" s="6">
+        <f>(O3-F11-F12)/2</f>
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6">
-        <f>B14</f>
+      <c r="B18" s="6">
+        <f>B17</f>
         <v>20.25</v>
       </c>
-      <c r="C15" s="6">
-        <f t="shared" ref="C15:F15" si="4">C14</f>
+      <c r="C18" s="6">
+        <f>C17</f>
         <v>19.900000000000006</v>
       </c>
-      <c r="D15" s="6">
-        <f t="shared" si="4"/>
+      <c r="D18" s="6">
+        <f>D17</f>
         <v>16</v>
       </c>
-      <c r="E15" s="6">
-        <f t="shared" si="4"/>
+      <c r="E18" s="6">
+        <f>E17</f>
         <v>36.75</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="4"/>
+      <c r="F18" s="6">
+        <f>F17</f>
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6">
-        <f>(K4-B10-B11)/2</f>
+      <c r="B19" s="6">
+        <f>(K4-B13-B14)/2</f>
         <v>0.54800000000000004</v>
       </c>
-      <c r="C16" s="6">
-        <f t="shared" ref="C16:F16" si="5">(L4-C10-C11)/2</f>
+      <c r="C19" s="6">
+        <f>(L4-C13-C14)/2</f>
         <v>0.11500000000000006</v>
       </c>
-      <c r="D16" s="6">
-        <f t="shared" si="5"/>
+      <c r="D19" s="6">
+        <f>(M4-D13-D14)/2</f>
         <v>0.28949999999999992</v>
       </c>
-      <c r="E16" s="6">
-        <f t="shared" si="5"/>
+      <c r="E19" s="6">
+        <f>(N4-E13-E14)/2</f>
         <v>0.56735000000000002</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="5"/>
+      <c r="F19" s="6">
+        <f>(O4-F13-F14)/2</f>
         <v>0.28525</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="6">
-        <f>B16</f>
+      <c r="B20" s="6">
+        <f>B19</f>
         <v>0.54800000000000004</v>
       </c>
-      <c r="C17" s="6">
-        <f t="shared" ref="C17:F17" si="6">C16</f>
+      <c r="C20" s="6">
+        <f>C19</f>
         <v>0.11500000000000006</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" si="6"/>
+      <c r="D20" s="6">
+        <f>D19</f>
         <v>0.28949999999999992</v>
       </c>
-      <c r="E17" s="6">
-        <f t="shared" si="6"/>
+      <c r="E20" s="6">
+        <f>E19</f>
         <v>0.56735000000000002</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" si="6"/>
+      <c r="F20" s="6">
+        <f>F19</f>
         <v>0.28525</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B21" s="6">
         <f>(K$5 * 4.166667)/4</f>
         <v>4.718750377500001</v>
       </c>
-      <c r="C18" s="6">
-        <f t="shared" ref="C18:F18" si="7">(L$5 * 4.166667)/4</f>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:F21" si="0">(L$5 * 4.166667)/4</f>
         <v>3.6250002900000005</v>
       </c>
-      <c r="D18" s="6">
-        <f t="shared" si="7"/>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
         <v>2.0833335000000002</v>
       </c>
-      <c r="E18" s="6">
-        <f t="shared" si="7"/>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
         <v>13.471146911025</v>
       </c>
-      <c r="F18" s="6">
-        <f t="shared" si="7"/>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
         <v>2.1250001700000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6">
-        <f t="shared" ref="B19:B21" si="8">(K$5 * 4.166667)/4</f>
+      <c r="B22" s="6">
+        <f t="shared" ref="B22:B24" si="1">(K$5 * 4.166667)/4</f>
         <v>4.718750377500001</v>
       </c>
-      <c r="C19" s="6">
-        <f t="shared" ref="C19:C21" si="9">(L$5 * 4.166667)/4</f>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:C24" si="2">(L$5 * 4.166667)/4</f>
         <v>3.6250002900000005</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:D21" si="10">(M$5 * 4.166667)/4</f>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:D24" si="3">(M$5 * 4.166667)/4</f>
         <v>2.0833335000000002</v>
       </c>
-      <c r="E19" s="6">
-        <f t="shared" ref="E19:E21" si="11">(N$5 * 4.166667)/4</f>
+      <c r="E22" s="6">
+        <f t="shared" ref="E22:E24" si="4">(N$5 * 4.166667)/4</f>
         <v>13.471146911025</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" ref="F19:F21" si="12">(O$5 * 4.166667)/4</f>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F24" si="5">(O$5 * 4.166667)/4</f>
         <v>2.1250001700000003</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6">
-        <f t="shared" si="8"/>
+      <c r="B23" s="6">
+        <f t="shared" si="1"/>
         <v>4.718750377500001</v>
       </c>
-      <c r="C20" s="6">
-        <f t="shared" si="9"/>
+      <c r="C23" s="6">
+        <f t="shared" si="2"/>
         <v>3.6250002900000005</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="10"/>
+      <c r="D23" s="6">
+        <f t="shared" si="3"/>
         <v>2.0833335000000002</v>
       </c>
-      <c r="E20" s="6">
-        <f t="shared" si="11"/>
+      <c r="E23" s="6">
+        <f t="shared" si="4"/>
         <v>13.471146911025</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" si="12"/>
+      <c r="F23" s="6">
+        <f t="shared" si="5"/>
         <v>2.1250001700000003</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6">
-        <f t="shared" si="8"/>
+      <c r="B24" s="6">
+        <f t="shared" si="1"/>
         <v>4.718750377500001</v>
       </c>
-      <c r="C21" s="6">
-        <f t="shared" si="9"/>
+      <c r="C24" s="6">
+        <f t="shared" si="2"/>
         <v>3.6250002900000005</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" si="10"/>
+      <c r="D24" s="6">
+        <f t="shared" si="3"/>
         <v>2.0833335000000002</v>
       </c>
-      <c r="E21" s="6">
-        <f t="shared" si="11"/>
+      <c r="E24" s="6">
+        <f t="shared" si="4"/>
         <v>13.471146911025</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="12"/>
+      <c r="F24" s="6">
+        <f t="shared" si="5"/>
         <v>2.1250001700000003</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B27" s="6">
         <v>585</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C27" s="6">
         <v>585</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D27" s="6">
         <v>573</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E27" s="6">
         <v>270</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F27" s="6">
         <v>637</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B28" s="6">
         <v>930</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C28" s="6">
         <v>930</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D28" s="6">
         <v>490</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E28" s="6">
         <v>560</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F28" s="6">
         <v>1024</v>
       </c>
     </row>
